--- a/Cylinders Status.xlsx
+++ b/Cylinders Status.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB25B4DC-C462-0A4B-932B-35D36468B9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5020" yWindow="500" windowWidth="23780" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12048" windowHeight="8352"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="64">
   <si>
     <t>D425570</t>
   </si>
@@ -57,13 +56,7 @@
     <t>031012</t>
   </si>
   <si>
-    <t>042202</t>
-  </si>
-  <si>
     <t>038861</t>
-  </si>
-  <si>
-    <t>031036</t>
   </si>
   <si>
     <t>031040</t>
@@ -237,7 +230,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -608,35 +601,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="157" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="17.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="5" customWidth="1"/>
+    <col min="3" max="4" width="17.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -646,7 +639,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -654,13 +647,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -670,7 +663,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -680,7 +673,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -690,7 +683,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -698,13 +691,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -712,13 +705,13 @@
         <v>734868</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -728,7 +721,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -738,7 +731,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -748,7 +741,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -756,13 +749,13 @@
         <v>9931262</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -770,13 +763,13 @@
         <v>56628</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -784,13 +777,13 @@
         <v>56618</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -798,13 +791,13 @@
         <v>4340</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -812,13 +805,13 @@
         <v>4335</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -828,7 +821,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -838,21 +831,17 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
-        <v>7739</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -862,95 +851,91 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="B21" s="4"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -958,110 +943,110 @@
         <v>425731</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="E30" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1069,16 +1054,16 @@
         <v>66486</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E37" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1086,13 +1071,13 @@
         <v>65623</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1100,16 +1085,16 @@
         <v>65610</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E39" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1117,41 +1102,41 @@
         <v>65609</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1159,13 +1144,13 @@
         <v>67961</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1173,13 +1158,13 @@
         <v>68043</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1187,13 +1172,13 @@
         <v>69102</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1201,16 +1186,16 @@
         <v>69092</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1218,13 +1203,13 @@
         <v>69114</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1232,13 +1217,13 @@
         <v>69116</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1246,13 +1231,13 @@
         <v>46303</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1260,13 +1245,13 @@
         <v>66482</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1274,13 +1259,13 @@
         <v>66484</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1288,13 +1273,13 @@
         <v>4283</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1302,16 +1287,16 @@
         <v>4274</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1319,13 +1304,13 @@
         <v>1010113</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1333,13 +1318,13 @@
         <v>5063536</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1347,13 +1332,13 @@
         <v>102740</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1361,13 +1346,13 @@
         <v>8199678</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1375,13 +1360,13 @@
         <v>6663719</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1389,16 +1374,16 @@
         <v>7869</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1406,13 +1391,13 @@
         <v>4296</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1420,13 +1405,13 @@
         <v>4300</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1434,13 +1419,13 @@
         <v>4334</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1448,13 +1433,13 @@
         <v>7788</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1462,13 +1447,13 @@
         <v>4264</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1476,13 +1461,13 @@
         <v>4396</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1490,53 +1475,53 @@
         <v>4388</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -1544,13 +1529,13 @@
         <v>2318</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -1560,7 +1545,7 @@
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -1570,7 +1555,7 @@
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -1580,7 +1565,7 @@
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -1590,7 +1575,7 @@
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -1600,7 +1585,7 @@
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -1610,7 +1595,7 @@
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -1620,7 +1605,7 @@
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -1628,13 +1613,13 @@
         <v>332</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -1642,13 +1627,13 @@
         <v>321</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -1656,13 +1641,13 @@
         <v>241</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -1670,27 +1655,27 @@
         <v>328</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -1698,13 +1683,13 @@
         <v>4429</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -1714,7 +1699,7 @@
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -1724,7 +1709,7 @@
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -1732,13 +1717,13 @@
         <v>4350</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -1746,16 +1731,16 @@
         <v>4358</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -1763,13 +1748,13 @@
         <v>4315</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -1777,16 +1762,16 @@
         <v>4433</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -1794,16 +1779,16 @@
         <v>4432</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -1811,13 +1796,13 @@
         <v>4279</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -1825,13 +1810,13 @@
         <v>4464</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -1839,13 +1824,13 @@
         <v>4386</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -1855,7 +1840,7 @@
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -1863,13 +1848,13 @@
         <v>4243</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -1877,13 +1862,13 @@
         <v>4268</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -1891,27 +1876,27 @@
         <v>4313</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -1919,13 +1904,13 @@
         <v>4440</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -1933,13 +1918,13 @@
         <v>7847</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -1947,13 +1932,13 @@
         <v>10676871</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -1961,52 +1946,52 @@
         <v>5063557</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
